--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\CoE 113\Laboratory\MP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Verilog\MIPS_Pipelined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="653">
   <si>
     <t>Instruction</t>
   </si>
@@ -1977,6 +1977,15 @@
   </si>
   <si>
     <t>00A12820</t>
+  </si>
+  <si>
+    <t>AC010014</t>
+  </si>
+  <si>
+    <t>sw $1, 20($0)</t>
+  </si>
+  <si>
+    <t>AC010004</t>
   </si>
 </sst>
 </file>
@@ -3712,7 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -11921,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12592,14 +12601,43 @@
       <c r="M19" s="1"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="M21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>652</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
+      <c r="K22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
